--- a/app/TestCases/Registration/TestCase_RegistrationPage.xlsx
+++ b/app/TestCases/Registration/TestCase_RegistrationPage.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{642D4C3E-933E-4CE7-81E4-FC34225672F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehana\Desktop\Big_Data_Semester1\Programming_for_big-data\Project\FacialRecognitionAttendanceSystem\app\TestCases\Registration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7D20BE-06DB-4C27-9098-30CB075A3DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <r>
       <t>Positive Test Cases</t>
@@ -155,6 +160,24 @@
   </si>
   <si>
     <t>The system should allow special characters in the username.</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Verify duplicate registration with same face</t>
+  </si>
+  <si>
+    <t>1. Enter registration fields</t>
+  </si>
+  <si>
+    <t>2. Click Add user</t>
+  </si>
+  <si>
+    <t>The system should not allow registring same face.(Pass)</t>
+  </si>
+  <si>
+    <t>This can allo same face if camera quality is low, lightening issue(Fail)</t>
   </si>
 </sst>
 </file>
@@ -612,18 +635,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
-    <col min="3" max="3" width="83.25" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="83.19921875" customWidth="1"/>
+    <col min="4" max="5" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1">
@@ -634,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="15.75">
+    <row r="2" spans="1:4" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -677,12 +700,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:4">
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75"/>
     <row r="10" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="3">
         <v>2</v>
@@ -691,7 +713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="15.75">
+    <row r="11" spans="1:4" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -705,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -719,7 +741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -733,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -747,7 +769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -761,7 +783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -773,6 +795,28 @@
       </c>
       <c r="D16" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/app/TestCases/Registration/TestCase_RegistrationPage.xlsx
+++ b/app/TestCases/Registration/TestCase_RegistrationPage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehana\Desktop\Big_Data_Semester1\Programming_for_big-data\Project\FacialRecognitionAttendanceSystem\app\TestCases\Registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7D20BE-06DB-4C27-9098-30CB075A3DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E56FE-BE68-4618-94EB-B7A163C85EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <r>
       <t>Positive Test Cases</t>
@@ -178,6 +178,33 @@
   </si>
   <si>
     <t>This can allo same face if camera quality is low, lightening issue(Fail)</t>
+  </si>
+  <si>
+    <t>Enter all required fields for registartion in above test.</t>
+  </si>
+  <si>
+    <t>Click Add new User</t>
+  </si>
+  <si>
+    <t>User should redirect to verify OTP page</t>
+  </si>
+  <si>
+    <t>Enter OTP received</t>
+  </si>
+  <si>
+    <t>An OTP should receive on the  registered email</t>
+  </si>
+  <si>
+    <t>Redirected to registration page</t>
+  </si>
+  <si>
+    <t>Registration should be done successfully</t>
+  </si>
+  <si>
+    <t>verify otp is received during registration and Email after Registration</t>
+  </si>
+  <si>
+    <t>Testing in different machine with dofferent webcam setting can give issue(Fail)</t>
   </si>
 </sst>
 </file>
@@ -635,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -646,7 +673,8 @@
     <col min="1" max="1" width="13.09765625" customWidth="1"/>
     <col min="2" max="2" width="59.5" customWidth="1"/>
     <col min="3" max="3" width="83.19921875" customWidth="1"/>
-    <col min="4" max="5" width="56.59765625" customWidth="1"/>
+    <col min="4" max="4" width="62.8984375" customWidth="1"/>
+    <col min="5" max="5" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="22.5" customHeight="1">
@@ -705,118 +733,163 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A10" s="3">
+    <row r="8" spans="1:4">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:4" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
